--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P27_trail9 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P27_trail9 Features.xlsx
@@ -2102,7 +2102,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2113,29 +2113,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2156,115 +2154,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -2281,72 +2269,66 @@
         <v>1.869832278624425e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.4134594109893774</v>
+        <v>8.561839866436177e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.5887112515417408</v>
+        <v>3.119201799610471e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>8.561839866436177e-07</v>
+        <v>0.07635713699830293</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.119201799610471e-06</v>
+        <v>0.1432282438537266</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.07635713699830293</v>
+        <v>0.02631828809598692</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1432282438537266</v>
+        <v>1.415717496317029</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.02631828809598692</v>
+        <v>1.612880774507377</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.326499519156886</v>
+        <v>3.839183761390196</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.612880774507377</v>
+        <v>1.027818793097861e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.839183761390196</v>
+        <v>24521163.13598895</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.027818793097861e-14</v>
+        <v>3.956383537528492e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>24521163.13598895</v>
+        <v>6.180145324703767</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>3.956383537528492e-06</v>
+        <v>0.0001063417967823188</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>6.180145324703767</v>
+        <v>8.152699145413695</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001063417967823188</v>
+        <v>1.308018159669031</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.152699145413695</v>
+        <v>0.007068167392675633</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.308018159669031</v>
+        <v>3.204020413581156</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.007068167392675633</v>
+        <v>0.9279149945187578</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.204020413581156</v>
+        <v>1.896645558966975</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9279149945187578</v>
+        <v>16</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.896645558966975</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2161170729139782</v>
       </c>
     </row>
@@ -2361,72 +2343,66 @@
         <v>1.908743613166507e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.5260641793491554</v>
+        <v>7.823610630497367e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.5368648642474012</v>
+        <v>3.13282412206073e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>7.823610630497367e-07</v>
+        <v>0.06833888024557029</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.13282412206073e-06</v>
+        <v>0.1282200339873005</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.06833888024557029</v>
+        <v>0.02109871609618117</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1282200339873005</v>
+        <v>1.409079114141832</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.02109871609618117</v>
+        <v>1.589828378121982</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.323818654344971</v>
+        <v>3.59893017193844</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.589828378121982</v>
+        <v>1.169627345848131e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.59893017193844</v>
+        <v>21817963.34318345</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.169627345848131e-14</v>
+        <v>4.445986825744755e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>21817963.34318345</v>
+        <v>5.567701314572895</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>4.445986825744755e-06</v>
+        <v>0.0001035304985805829</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>5.567701314572895</v>
+        <v>7.952250761620916</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001035304985805829</v>
+        <v>1.417289424612548</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>7.952250761620916</v>
+        <v>0.006547091918334839</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.417289424612548</v>
+        <v>3.292439636427124</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.006547091918334839</v>
+        <v>0.9267563491668043</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.292439636427124</v>
+        <v>1.862779697757876</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9267563491668043</v>
+        <v>16</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.862779697757876</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2149670523654553</v>
       </c>
     </row>
@@ -2441,72 +2417,66 @@
         <v>1.968686909095075e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.5709912840566411</v>
+        <v>7.32707083973767e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.492148019935946</v>
+        <v>3.145380235964566e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>7.32707083973767e-07</v>
+        <v>0.06159868553555689</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.145380235964566e-06</v>
+        <v>0.1179177724417742</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.06159868553555689</v>
+        <v>0.0176913529023599</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1179177724417742</v>
+        <v>1.376940691974134</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.0176913529023599</v>
+        <v>1.486337269084388</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.297675900984045</v>
+        <v>3.569725159498942</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.486337269084388</v>
+        <v>1.188843790915808e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.569725159498942</v>
+        <v>21885627.97233362</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.188843790915808e-14</v>
+        <v>4.328023356501723e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>21885627.97233362</v>
+        <v>5.694332451245659</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>4.328023356501723e-06</v>
+        <v>0.0001053523322538163</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>5.694332451245659</v>
+        <v>6.851046325337985</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001053523322538163</v>
+        <v>1.432085622963093</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>6.851046325337985</v>
+        <v>0.004944905115079826</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.432085622963093</v>
+        <v>3.324009034910073</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.004944905115079826</v>
+        <v>0.9169856767788309</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.324009034910073</v>
+        <v>1.904293290690088</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9169856767788309</v>
+        <v>16</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.904293290690088</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.209194179882121</v>
       </c>
     </row>
@@ -2521,72 +2491,66 @@
         <v>2.04260416556007e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.5843142172073522</v>
+        <v>7.624957803294084e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.4805375808654273</v>
+        <v>3.157185848128613e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>7.624957803294084e-07</v>
+        <v>0.05651221696791659</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.157185848128613e-06</v>
+        <v>0.1092326334593429</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.05651221696791659</v>
+        <v>0.01511722375130451</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1092326334593429</v>
+        <v>1.35060570418682</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.01511722375130451</v>
+        <v>1.451112491403413</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.276690743788776</v>
+        <v>3.957195334664778</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.451112491403413</v>
+        <v>1.261021612333658e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.957195334664778</v>
+        <v>21842324.12966371</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.261021612333658e-14</v>
+        <v>4.200970276577146e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>21842324.12966371</v>
+        <v>6.016171735549448</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>4.200970276577146e-06</v>
+        <v>0.0001118105174289422</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>6.016171735549448</v>
+        <v>7.018188260431228</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001118105174289422</v>
+        <v>1.322057837778373</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.018188260431228</v>
+        <v>0.005507223285709737</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.322057837778373</v>
+        <v>3.167920176660044</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.005507223285709737</v>
+        <v>0.9117489655125907</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.167920176660044</v>
+        <v>1.909280761963801</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9117489655125907</v>
+        <v>17</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.909280761963801</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2161819847340346</v>
       </c>
     </row>
@@ -2601,72 +2565,66 @@
         <v>2.130566421910772e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.5897286890888348</v>
+        <v>7.946895530395025e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.4838838109473285</v>
+        <v>3.168485985701295e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>7.946895530395025e-07</v>
+        <v>0.05203912716834367</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>3.168485985701295e-06</v>
+        <v>0.1013227544354982</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.05203912716834367</v>
+        <v>0.01297034919806835</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1013227544354982</v>
+        <v>1.348925011063829</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01297034919806835</v>
+        <v>1.569269533816961</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.271984482804532</v>
+        <v>3.94897730058895</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.569269533816961</v>
+        <v>1.266275581092826e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.94897730058895</v>
+        <v>22330861.55312028</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.266275581092826e-14</v>
+        <v>4.120239106313324e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>22330861.55312028</v>
+        <v>6.314503234749604</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>4.120239106313324e-06</v>
+        <v>0.0001213138753932787</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>6.314503234749604</v>
+        <v>7.443827647301488</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001213138753932787</v>
+        <v>1.408217715578026</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>7.443827647301488</v>
+        <v>0.00672207098963429</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.408217715578026</v>
+        <v>3.036769439883423</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.00672207098963429</v>
+        <v>0.9093124979708852</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.036769439883423</v>
+        <v>1.906812990864575</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9093124979708852</v>
+        <v>17</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.906812990864575</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2134662144993386</v>
       </c>
     </row>
@@ -2681,72 +2639,66 @@
         <v>2.225826663251937e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.590384707655867</v>
+        <v>8.18566505389063e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.5087184154382958</v>
+        <v>3.179468733114212e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>8.18566505389063e-07</v>
+        <v>0.04914253238528072</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3.179468733114212e-06</v>
+        <v>0.09633831739567549</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.04914253238528072</v>
+        <v>0.01169544165796677</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.09633831739567549</v>
+        <v>1.321424554928611</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01169544165796677</v>
+        <v>1.501738648554635</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.25366347099355</v>
+        <v>3.868862979229033</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.501738648554635</v>
+        <v>1.31926125786628e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.868862979229033</v>
+        <v>22691086.65966737</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.31926125786628e-14</v>
+        <v>3.877734719669258e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>22691086.65966737</v>
+        <v>6.792683786622161</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>3.877734719669258e-06</v>
+        <v>0.0001250745125244748</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>6.792683786622161</v>
+        <v>7.946743248215085</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001250745125244748</v>
+        <v>1.468751791869668</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>7.946743248215085</v>
+        <v>0.007898546551816061</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.468751791869668</v>
+        <v>2.91996481120497</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.007898546551816061</v>
+        <v>0.9035560839854172</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.91996481120497</v>
+        <v>1.883608913330264</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9035560839854172</v>
+        <v>17</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.883608913330264</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2299575409051718</v>
       </c>
     </row>
@@ -3123,7 +3075,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.396216481838084</v>
+        <v>1.349385891642511</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.480551642107529</v>
@@ -3212,7 +3164,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.416779635501764</v>
+        <v>1.36822683737294</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.276773807097093</v>
@@ -3301,7 +3253,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.437020400695837</v>
+        <v>1.388251860588065</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.485732230430562</v>
@@ -3390,7 +3342,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.438891431619885</v>
+        <v>1.392972133623269</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.456984311662143</v>
@@ -3479,7 +3431,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.420115502084067</v>
+        <v>1.374324594701637</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.259591014507276</v>
@@ -3568,7 +3520,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.422302304449087</v>
+        <v>1.37456945805813</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.487878783416206</v>
@@ -3657,7 +3609,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.426975477782333</v>
+        <v>1.382284976280697</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.257848786966042</v>
@@ -3746,7 +3698,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.42745977744855</v>
+        <v>1.379261474188475</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.300324506014654</v>
@@ -3835,7 +3787,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.452813588216237</v>
+        <v>1.401714637040084</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.428630335317154</v>
@@ -3924,7 +3876,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.476437104411577</v>
+        <v>1.415988259822268</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.392694213764671</v>
@@ -4013,7 +3965,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.472889726335042</v>
+        <v>1.414252386470752</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.336263876817895</v>
@@ -4102,7 +4054,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.455252577734535</v>
+        <v>1.403300214845807</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.497821315934619</v>
@@ -4191,7 +4143,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.455262909571279</v>
+        <v>1.405922969986801</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.319572020783331</v>
@@ -4280,7 +4232,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.449701442439217</v>
+        <v>1.391331272017267</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.475438071922369</v>
@@ -4369,7 +4321,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.46751830707445</v>
+        <v>1.409125088887136</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.314612393171003</v>
@@ -4458,7 +4410,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.464205970243199</v>
+        <v>1.398793257898268</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.40164369913475</v>
@@ -4547,7 +4499,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.473975838810649</v>
+        <v>1.405437974454245</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.424414205472637</v>
@@ -4636,7 +4588,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.469559492394418</v>
+        <v>1.401142914488686</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.421127748100469</v>
@@ -4725,7 +4677,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.471731176042485</v>
+        <v>1.405072737518992</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.173172143514475</v>
@@ -4814,7 +4766,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.471040278864204</v>
+        <v>1.411812109940142</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.302373724704577</v>
@@ -4903,7 +4855,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.49480095507897</v>
+        <v>1.434104136632608</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.264132407015688</v>
@@ -4992,7 +4944,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.504688677250968</v>
+        <v>1.440790303524854</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.405820031271156</v>
@@ -5081,7 +5033,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.530575296670314</v>
+        <v>1.466144652356428</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.403976922047015</v>
@@ -5170,7 +5122,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.535851322959896</v>
+        <v>1.474014674494392</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.373673073980877</v>
@@ -5259,7 +5211,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.541414409695051</v>
+        <v>1.478521550604912</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.40480620696952</v>
@@ -5348,7 +5300,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.542193487646568</v>
+        <v>1.476052033643513</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.311713102114189</v>
@@ -5437,7 +5389,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.557346324391926</v>
+        <v>1.482541013113406</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.583492938232349</v>
@@ -5526,7 +5478,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.464494720380373</v>
+        <v>1.407694497884125</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.076595566711497</v>
@@ -5615,7 +5567,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.469729893438347</v>
+        <v>1.421427988831342</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.056795343524009</v>
@@ -5704,7 +5656,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.467331767708321</v>
+        <v>1.424519500651588</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.103703859443921</v>
@@ -5793,7 +5745,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.464104176459856</v>
+        <v>1.426576314073669</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.088723311815039</v>
@@ -5882,7 +5834,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.467640893087121</v>
+        <v>1.432223225667835</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.089549216492792</v>
@@ -5971,7 +5923,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.47076169311709</v>
+        <v>1.432047291988451</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.098573954638913</v>
@@ -6060,7 +6012,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.475318264719161</v>
+        <v>1.4348229535947</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.079925052630232</v>
@@ -6149,7 +6101,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.496588147570374</v>
+        <v>1.449421999878683</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.072453107643951</v>
@@ -6238,7 +6190,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.500910976670171</v>
+        <v>1.453127442175324</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.988850211300084</v>
@@ -6327,7 +6279,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.501881994689687</v>
+        <v>1.4527912960292</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.06947598314327</v>
@@ -6416,7 +6368,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.474502843357825</v>
+        <v>1.43011157179212</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.075479321518595</v>
@@ -6505,7 +6457,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.461192588261946</v>
+        <v>1.415298424443898</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.998778261852883</v>
@@ -6594,7 +6546,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.457937031723134</v>
+        <v>1.420162864528682</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.036292209165729</v>
@@ -6683,7 +6635,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.468250687269856</v>
+        <v>1.429780722688599</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.034817953276561</v>
@@ -6772,7 +6724,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.476646255490855</v>
+        <v>1.438355404322383</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.951393244373462</v>
@@ -6861,7 +6813,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.571083263425368</v>
+        <v>1.517460796154357</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.384211389732175</v>
@@ -6950,7 +6902,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.5411166492976</v>
+        <v>1.488432700025079</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.348526793361565</v>
@@ -7039,7 +6991,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.543029169004393</v>
+        <v>1.486478631933767</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.33779147866549</v>
@@ -7128,7 +7080,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.5584300787575</v>
+        <v>1.505203947450884</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.287482668254639</v>
@@ -7217,7 +7169,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.557606395832827</v>
+        <v>1.500182644517065</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.325523728955806</v>
@@ -7306,7 +7258,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.535463871692927</v>
+        <v>1.483857829638247</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.312499971112738</v>
@@ -7395,7 +7347,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.522952948661848</v>
+        <v>1.477276534851835</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.336423502999831</v>
@@ -7484,7 +7436,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.528996053469191</v>
+        <v>1.488097643383537</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.344650485220126</v>
@@ -7573,7 +7525,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.504400792241528</v>
+        <v>1.471734935291212</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.417274419065464</v>
@@ -7859,7 +7811,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.418574634814508</v>
+        <v>1.37935063209146</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.517135712161263</v>
@@ -7948,7 +7900,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.430391528554305</v>
+        <v>1.387810763772551</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.501907839601693</v>
@@ -8037,7 +7989,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.438197421388288</v>
+        <v>1.394161350467255</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.349868915713786</v>
@@ -8126,7 +8078,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.453474530135112</v>
+        <v>1.4030271364946</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.43530748084936</v>
@@ -8215,7 +8167,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.442459491770325</v>
+        <v>1.394533059080832</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.363458354321027</v>
@@ -8304,7 +8256,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.427650754609729</v>
+        <v>1.391250722624402</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.50106773062519</v>
@@ -8393,7 +8345,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.428598024681787</v>
+        <v>1.397409306547008</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.455243738986624</v>
@@ -8482,7 +8434,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.432251481555694</v>
+        <v>1.398160271414239</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.337016131836097</v>
@@ -8571,7 +8523,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.442371826984798</v>
+        <v>1.408110717720711</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.388437304592898</v>
@@ -8660,7 +8612,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.478602192516466</v>
+        <v>1.434428317794632</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.316332690684261</v>
@@ -8749,7 +8701,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.515926930416807</v>
+        <v>1.459331827574098</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.634705942373074</v>
@@ -8838,7 +8790,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.509602497010019</v>
+        <v>1.454860726776863</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.686465572666207</v>
@@ -8927,7 +8879,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.521338361062572</v>
+        <v>1.463063328574343</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.675821197169006</v>
@@ -9016,7 +8968,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.511056156961099</v>
+        <v>1.444045832936551</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.66400612127213</v>
@@ -9105,7 +9057,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.519214914850415</v>
+        <v>1.446872727826055</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.571722724635861</v>
@@ -9194,7 +9146,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.514980492977386</v>
+        <v>1.437550688015296</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.659081302416266</v>
@@ -9283,7 +9235,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.520289733235392</v>
+        <v>1.443009772792323</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.570542787297521</v>
@@ -9372,7 +9324,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.518676395213391</v>
+        <v>1.444959963493841</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.626182733887493</v>
@@ -9461,7 +9413,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.528145822835738</v>
+        <v>1.454176558395884</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.146374891357911</v>
@@ -9550,7 +9502,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.546354232652874</v>
+        <v>1.471926766966327</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.371904520839426</v>
@@ -9639,7 +9591,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.570539884807161</v>
+        <v>1.493272186029299</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.932105810137116</v>
@@ -9728,7 +9680,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.564034125812185</v>
+        <v>1.488703859897584</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.866699483892226</v>
@@ -9817,7 +9769,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.578079441496026</v>
+        <v>1.502650394683972</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.747347423528554</v>
@@ -9906,7 +9858,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.587720811621423</v>
+        <v>1.509674456038933</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.875038357095478</v>
@@ -9995,7 +9947,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.598548277930629</v>
+        <v>1.519048462957459</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.687652833117854</v>
@@ -10084,7 +10036,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.585723514339692</v>
+        <v>1.511217948274264</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.795593715999132</v>
@@ -10173,7 +10125,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.601132105667761</v>
+        <v>1.527116433690181</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.810991720473615</v>
@@ -10262,7 +10214,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.56660434187747</v>
+        <v>1.498560270990487</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.668443340997656</v>
@@ -10351,7 +10303,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.56824437749209</v>
+        <v>1.502402019592064</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.757194544169737</v>
@@ -10440,7 +10392,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.561663543343183</v>
+        <v>1.50831358777555</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.572299423788303</v>
@@ -10529,7 +10481,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.571379578664768</v>
+        <v>1.524141557713868</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.634141507549151</v>
@@ -10618,7 +10570,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.56353115664232</v>
+        <v>1.522691361176463</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.697797053499487</v>
@@ -10707,7 +10659,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.565694714450322</v>
+        <v>1.520852615107365</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.785111358160808</v>
@@ -10796,7 +10748,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.566815883947021</v>
+        <v>1.519561140509221</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.741571133982609</v>
@@ -10885,7 +10837,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.594561458535566</v>
+        <v>1.543076652839976</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.698744839213787</v>
@@ -10974,7 +10926,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.599325144769072</v>
+        <v>1.544524007969529</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.781323701294422</v>
@@ -11063,7 +11015,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.608394493910247</v>
+        <v>1.549657943860669</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.761181609120671</v>
@@ -11152,7 +11104,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.597380894338607</v>
+        <v>1.541402941600759</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.730305004982822</v>
@@ -11241,7 +11193,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.583071873799907</v>
+        <v>1.534602892769845</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.693301528193103</v>
@@ -11330,7 +11282,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.582677078776545</v>
+        <v>1.54489088309349</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.71181645088574</v>
@@ -11419,7 +11371,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.588706417150072</v>
+        <v>1.547121569756709</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.625192690030199</v>
@@ -11508,7 +11460,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.603262459127398</v>
+        <v>1.561147203231126</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.34704424203193</v>
@@ -11597,7 +11549,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.623193671506521</v>
+        <v>1.58392023402643</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.797959286564792</v>
@@ -11686,7 +11638,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.621192516905411</v>
+        <v>1.587686495278384</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.752270100284791</v>
@@ -11775,7 +11727,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.631038397624849</v>
+        <v>1.592177999005654</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.994783307647036</v>
@@ -11864,7 +11816,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.636890520562666</v>
+        <v>1.598727127276477</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.952398107157577</v>
@@ -11953,7 +11905,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.663873676648786</v>
+        <v>1.621779215987778</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.981756816420297</v>
@@ -12042,7 +11994,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.65234359994537</v>
+        <v>1.621040094788728</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.944671151195464</v>
@@ -12131,7 +12083,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.633741027516538</v>
+        <v>1.61115911713467</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.643099139061958</v>
@@ -12220,7 +12172,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.593917164779474</v>
+        <v>1.591025897857606</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.665779695318226</v>
@@ -12309,7 +12261,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.535875919074661</v>
+        <v>1.536359418296057</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.274898626992949</v>
@@ -12595,7 +12547,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.728320812802457</v>
+        <v>1.611130071886416</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.58825602502711</v>
@@ -12684,7 +12636,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.723652167131434</v>
+        <v>1.61390587667889</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.540654998754507</v>
@@ -12773,7 +12725,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.7281784222792</v>
+        <v>1.614351470218603</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.642664680972143</v>
@@ -12862,7 +12814,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.73054176063229</v>
+        <v>1.611574801883059</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.446420790654689</v>
@@ -12951,7 +12903,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.721863374812523</v>
+        <v>1.610441717096212</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.376926396843388</v>
@@ -13040,7 +12992,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.716410834774295</v>
+        <v>1.603703660187279</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.372654219248266</v>
@@ -13129,7 +13081,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.711711887948922</v>
+        <v>1.598395790891404</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.660671262519221</v>
@@ -13218,7 +13170,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.71386336543163</v>
+        <v>1.59579469063091</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.663713536491169</v>
@@ -13307,7 +13259,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.706957242259118</v>
+        <v>1.600307697070182</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.666584797298248</v>
@@ -13396,7 +13348,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.705960351095515</v>
+        <v>1.594358104843118</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.891588111777448</v>
@@ -13485,7 +13437,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.700888546802124</v>
+        <v>1.589842417460588</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.850881840187167</v>
@@ -13574,7 +13526,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.719566143198092</v>
+        <v>1.613086075238076</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.386890316369838</v>
@@ -13663,7 +13615,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.725539356537444</v>
+        <v>1.613093877439786</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.952130493353119</v>
@@ -13752,7 +13704,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.71797884182796</v>
+        <v>1.606008924198125</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.359842965765896</v>
@@ -13841,7 +13793,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.717240555530583</v>
+        <v>1.608158500515388</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.314945422829556</v>
@@ -13930,7 +13882,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.704991794855965</v>
+        <v>1.588072783123991</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.513433108659401</v>
@@ -14019,7 +13971,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.711099522833162</v>
+        <v>1.59271983560587</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.513952220667732</v>
@@ -14108,7 +14060,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.696557101301006</v>
+        <v>1.583595130689713</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.753815592445733</v>
@@ -14197,7 +14149,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.695390900758613</v>
+        <v>1.586968857289801</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.530820041931893</v>
@@ -14286,7 +14238,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.699796702342128</v>
+        <v>1.585946859043942</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.848190358739768</v>
@@ -14375,7 +14327,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.707689814471002</v>
+        <v>1.594755434815483</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.730905993562019</v>
@@ -14464,7 +14416,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.708990081153417</v>
+        <v>1.598445403213215</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.110127356275122</v>
@@ -14553,7 +14505,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.708663018119729</v>
+        <v>1.603737675496473</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.718223664671643</v>
@@ -14642,7 +14594,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.710292840708904</v>
+        <v>1.601470681914973</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.815678602538858</v>
@@ -14731,7 +14683,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.714349752266989</v>
+        <v>1.607641520753741</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.53686139303688</v>
@@ -14820,7 +14772,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.714897762100535</v>
+        <v>1.607838072545594</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.340246525345437</v>
@@ -14909,7 +14861,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.706501896945318</v>
+        <v>1.594777298991896</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.394895424805637</v>
@@ -14998,7 +14950,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.689087115291918</v>
+        <v>1.580848715212555</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.76178063889999</v>
@@ -15087,7 +15039,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.701548782867465</v>
+        <v>1.592423463317147</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.567272896313119</v>
@@ -15176,7 +15128,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.710641486676217</v>
+        <v>1.612461890009401</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.50556212467272</v>
@@ -15265,7 +15217,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.717283775664209</v>
+        <v>1.620721487831275</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.473969606434673</v>
@@ -15354,7 +15306,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.718406762918987</v>
+        <v>1.622449098584689</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.807207027491299</v>
@@ -15443,7 +15395,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.718660300768414</v>
+        <v>1.618668608920191</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.323368977482239</v>
@@ -15532,7 +15484,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.7202851462786</v>
+        <v>1.618147388925354</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.69842999563654</v>
@@ -15621,7 +15573,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.718644910603398</v>
+        <v>1.621679696412351</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.451939734029631</v>
@@ -15710,7 +15662,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.722476010837696</v>
+        <v>1.627119917334255</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.65323409655077</v>
@@ -15799,7 +15751,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.718762816704873</v>
+        <v>1.624300812408746</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.698835214032276</v>
@@ -15888,7 +15840,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.720776810476951</v>
+        <v>1.625695684312305</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.769349664531683</v>
@@ -15977,7 +15929,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.711817771709525</v>
+        <v>1.622045716879957</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.673668101268994</v>
@@ -16066,7 +16018,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.706275222423576</v>
+        <v>1.616319497107217</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.587363516592422</v>
@@ -16155,7 +16107,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.714578391004744</v>
+        <v>1.626070614412984</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.298405672401302</v>
@@ -16244,7 +16196,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.711693310382563</v>
+        <v>1.617738459408501</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.610995571245916</v>
@@ -16333,7 +16285,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.718239959817712</v>
+        <v>1.625845789442204</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.528526042222617</v>
@@ -16422,7 +16374,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.704213264581202</v>
+        <v>1.612506927918038</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.824630269113708</v>
@@ -16511,7 +16463,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.69517921391906</v>
+        <v>1.598120985511027</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.638663519527822</v>
@@ -16600,7 +16552,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.696521274978076</v>
+        <v>1.611844533005039</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.880519585039709</v>
@@ -16689,7 +16641,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.694590097188897</v>
+        <v>1.610576661950257</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.670951600817333</v>
@@ -16778,7 +16730,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.695362961023622</v>
+        <v>1.612451054678779</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.864828470225404</v>
@@ -16867,7 +16819,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.703939298179912</v>
+        <v>1.624056194504106</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.786529411554818</v>
@@ -16956,7 +16908,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.709320841033923</v>
+        <v>1.631326243610232</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.115384976866088</v>
@@ -17045,7 +16997,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.713861533756065</v>
+        <v>1.639439957588056</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.789848671873885</v>
@@ -17331,7 +17283,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.709339463277591</v>
+        <v>1.624633101740358</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.957494371995078</v>
@@ -17420,7 +17372,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.706633063093875</v>
+        <v>1.62487608599556</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.446937636184741</v>
@@ -17509,7 +17461,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.716668128859355</v>
+        <v>1.627366598036303</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.339367125765095</v>
@@ -17598,7 +17550,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.720407613906413</v>
+        <v>1.633497981287012</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.361234993180638</v>
@@ -17687,7 +17639,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.731087383988695</v>
+        <v>1.632602626422532</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4.061568827913305</v>
@@ -17776,7 +17728,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.719083748437754</v>
+        <v>1.624861829582438</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.864215455708995</v>
@@ -17865,7 +17817,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.717946404162032</v>
+        <v>1.624084310850057</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.180550995942568</v>
@@ -17954,7 +17906,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.709493382484703</v>
+        <v>1.612593588625392</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>4.327770333587054</v>
@@ -18043,7 +17995,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.701501096712376</v>
+        <v>1.605313288985601</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.986136492220335</v>
@@ -18132,7 +18084,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.703343198109678</v>
+        <v>1.607152920781781</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.789484985782685</v>
@@ -18221,7 +18173,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.699298210699195</v>
+        <v>1.600721276457906</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.791319362999698</v>
@@ -18310,7 +18262,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.706186731520621</v>
+        <v>1.608274259787948</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.429863417733634</v>
@@ -18399,7 +18351,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.712204803816346</v>
+        <v>1.612425963154228</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.600268528240541</v>
@@ -18488,7 +18440,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.711402920557837</v>
+        <v>1.608931771725912</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.338535656536001</v>
@@ -18577,7 +18529,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.711830334102586</v>
+        <v>1.603324642930291</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.789509081566269</v>
@@ -18666,7 +18618,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.711053755895656</v>
+        <v>1.598090203648804</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.241345210754332</v>
@@ -18755,7 +18707,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.707477920691154</v>
+        <v>1.596840857014448</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.733387378345877</v>
@@ -18844,7 +18796,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.69884273580173</v>
+        <v>1.592009279472342</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.970134349342445</v>
@@ -18933,7 +18885,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.703129336650479</v>
+        <v>1.585993072539487</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.623330606591823</v>
@@ -19022,7 +18974,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.698166344319784</v>
+        <v>1.583592709988194</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.291962242456656</v>
@@ -19111,7 +19063,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.711010704372096</v>
+        <v>1.590241743796634</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.024458484893084</v>
@@ -19200,7 +19152,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.71868776010432</v>
+        <v>1.599756744413829</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.951783773817967</v>
@@ -19289,7 +19241,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.733467915377547</v>
+        <v>1.613498321232822</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.971819255320958</v>
@@ -19378,7 +19330,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.740782228073127</v>
+        <v>1.622044684713839</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.871093630959872</v>
@@ -19467,7 +19419,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.73389908286755</v>
+        <v>1.607993566410381</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.314174877314524</v>
@@ -19556,7 +19508,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.735580165974837</v>
+        <v>1.60621021174184</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.931512586070731</v>
@@ -19645,7 +19597,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.739123206228678</v>
+        <v>1.610138791946235</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.74273917610691</v>
@@ -19734,7 +19686,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.721669805982875</v>
+        <v>1.598081995541688</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.855586940200176</v>
@@ -19823,7 +19775,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.726971867116238</v>
+        <v>1.606276973605332</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.609193224706506</v>
@@ -19912,7 +19864,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.720166737937422</v>
+        <v>1.60729511462755</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.566116158296349</v>
@@ -20001,7 +19953,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.724973141742512</v>
+        <v>1.616932927402564</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.212907460454706</v>
@@ -20090,7 +20042,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.729856745588023</v>
+        <v>1.618950655908212</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.011822319117167</v>
@@ -20179,7 +20131,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.733334605697669</v>
+        <v>1.622997043439565</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.456522620610129</v>
@@ -20268,7 +20220,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.728353192557856</v>
+        <v>1.625573130718331</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.021004871132987</v>
@@ -20357,7 +20309,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.736661874056808</v>
+        <v>1.637210722230287</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.528546226830531</v>
@@ -20446,7 +20398,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.724310284114424</v>
+        <v>1.621289186745057</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.175194333645842</v>
@@ -20535,7 +20487,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.721207594508943</v>
+        <v>1.610388346325762</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.39613585188673</v>
@@ -20624,7 +20576,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.723859214709381</v>
+        <v>1.612583403226628</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.282517984105325</v>
@@ -20713,7 +20665,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.719549130330921</v>
+        <v>1.609702049957289</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.402723406964379</v>
@@ -20802,7 +20754,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.724692051801277</v>
+        <v>1.616348761569702</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.187863338756357</v>
@@ -20891,7 +20843,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.732017855966086</v>
+        <v>1.636419810125183</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.22759564785547</v>
@@ -20980,7 +20932,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.729794526885224</v>
+        <v>1.631844788417732</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.876981036346896</v>
@@ -21069,7 +21021,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.743133888373663</v>
+        <v>1.646332619229019</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.925944148021248</v>
@@ -21158,7 +21110,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.739049581366348</v>
+        <v>1.648175423634955</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.598871400342108</v>
@@ -21247,7 +21199,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.751813940347433</v>
+        <v>1.662539124704106</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.699087294873914</v>
@@ -21336,7 +21288,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.758386876514736</v>
+        <v>1.672653844342431</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.019638925397747</v>
@@ -21425,7 +21377,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.754902222775552</v>
+        <v>1.67071094032916</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.688655762770584</v>
@@ -21514,7 +21466,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.759242591959781</v>
+        <v>1.676969715165129</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.856395376351275</v>
@@ -21603,7 +21555,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.75300893124932</v>
+        <v>1.675916659916106</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.683228182203822</v>
@@ -21692,7 +21644,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.748979189394002</v>
+        <v>1.678263772995082</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.805519652373176</v>
@@ -21781,7 +21733,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.746591406087039</v>
+        <v>1.690283191914686</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.869283842131509</v>
@@ -22067,7 +22019,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.431825262217605</v>
+        <v>1.40550517047943</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.369033938455917</v>
@@ -22156,7 +22108,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.438147418069667</v>
+        <v>1.406836647542861</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.22524883348106</v>
@@ -22245,7 +22197,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.455590933409124</v>
+        <v>1.422036934281034</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.422298408756719</v>
@@ -22334,7 +22286,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.465134137365798</v>
+        <v>1.432245498710455</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.231556208997185</v>
@@ -22423,7 +22375,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.459031530204561</v>
+        <v>1.429215980135421</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.497006645980673</v>
@@ -22512,7 +22464,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.453613206910245</v>
+        <v>1.42359339820667</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.345783869860545</v>
@@ -22601,7 +22553,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.457710784094639</v>
+        <v>1.428804893509982</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.265208082852196</v>
@@ -22690,7 +22642,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.466689573977886</v>
+        <v>1.436519088507661</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.237064203626393</v>
@@ -22779,7 +22731,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.471233296200836</v>
+        <v>1.441050478867548</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.189822336746948</v>
@@ -22868,7 +22820,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.485874232591513</v>
+        <v>1.447334382925101</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.055146599540222</v>
@@ -22957,7 +22909,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.517487138080894</v>
+        <v>1.470065911658236</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.173938619803675</v>
@@ -23046,7 +22998,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.511717505370994</v>
+        <v>1.465762398562207</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.243669092771473</v>
@@ -23135,7 +23087,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.516219191875108</v>
+        <v>1.464926616329532</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.380422980726337</v>
@@ -23224,7 +23176,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.519303861381805</v>
+        <v>1.455827270747016</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.015940387888883</v>
@@ -23313,7 +23265,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.557156214343591</v>
+        <v>1.480897684692</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.545842993523241</v>
@@ -23402,7 +23354,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.554063279860454</v>
+        <v>1.467282992119559</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.572371302964295</v>
@@ -23491,7 +23443,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.557584138237642</v>
+        <v>1.470345638705726</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.587307250003316</v>
@@ -23580,7 +23532,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.553822655420455</v>
+        <v>1.469802549748179</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.561550209569282</v>
@@ -23669,7 +23621,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.566548271469096</v>
+        <v>1.474464459722685</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.729110093919619</v>
@@ -23758,7 +23710,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.581871557229631</v>
+        <v>1.488690222858508</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.898230219502979</v>
@@ -23847,7 +23799,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.614135246390546</v>
+        <v>1.515057201097147</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.983553197139342</v>
@@ -23936,7 +23888,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.611933236908702</v>
+        <v>1.516885205808566</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.313380638366549</v>
@@ -24025,7 +23977,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.626076036890387</v>
+        <v>1.533335276824991</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.174936375785781</v>
@@ -24114,7 +24066,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.632439741317433</v>
+        <v>1.539274189926786</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.481952220882844</v>
@@ -24203,7 +24155,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.634873065918675</v>
+        <v>1.537846967993461</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.285002307959389</v>
@@ -24292,7 +24244,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.615698865047767</v>
+        <v>1.525791234585809</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.495422859580813</v>
@@ -24381,7 +24333,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.619205967056309</v>
+        <v>1.535788581504387</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.356646466380966</v>
@@ -24470,7 +24422,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.610393564290859</v>
+        <v>1.537167378238674</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.472866602455429</v>
@@ -24559,7 +24511,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.610440417385675</v>
+        <v>1.537215309877791</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.087264557291928</v>
@@ -24648,7 +24600,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.608470435938813</v>
+        <v>1.549343759221457</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.885496850629563</v>
@@ -24737,7 +24689,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.621585714709298</v>
+        <v>1.569504071963957</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.309961558866551</v>
@@ -24826,7 +24778,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.619901212914423</v>
+        <v>1.573788689684299</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.306288922734364</v>
@@ -24915,7 +24867,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.606533802728945</v>
+        <v>1.559222202661034</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.012966055924938</v>
@@ -25004,7 +24956,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.596927783888946</v>
+        <v>1.553023346699646</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.306436571898053</v>
@@ -25093,7 +25045,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.605138593071403</v>
+        <v>1.557465636202476</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.079896451312941</v>
@@ -25182,7 +25134,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.61266036204602</v>
+        <v>1.564491381745399</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.072869029410866</v>
@@ -25271,7 +25223,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.623787160408275</v>
+        <v>1.567981917060375</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.156852190620991</v>
@@ -25360,7 +25312,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.627966292542022</v>
+        <v>1.570349718556153</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.25387763664689</v>
@@ -25449,7 +25401,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.633069146622976</v>
+        <v>1.578778306593214</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.265918655163545</v>
@@ -25538,7 +25490,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.644085808125419</v>
+        <v>1.596696143231328</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.863409105929678</v>
@@ -25627,7 +25579,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.64761216623937</v>
+        <v>1.602970898829037</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.848677373493655</v>
@@ -25716,7 +25668,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.647848547592766</v>
+        <v>1.605417693913824</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.911976294073971</v>
@@ -25805,7 +25757,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.656584900136149</v>
+        <v>1.613165412245487</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.057795330545686</v>
@@ -25894,7 +25846,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.647645978950592</v>
+        <v>1.607386695737597</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.121645896106095</v>
@@ -25983,7 +25935,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.649360843440236</v>
+        <v>1.610132946749937</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.884232565505294</v>
@@ -26072,7 +26024,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.644382436827207</v>
+        <v>1.607985949834358</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.971381515570916</v>
@@ -26161,7 +26113,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.629453342438534</v>
+        <v>1.592839444509408</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.991325614306998</v>
@@ -26250,7 +26202,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.63463636636733</v>
+        <v>1.602154833211562</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.119098069035512</v>
@@ -26339,7 +26291,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.597252700562187</v>
+        <v>1.573919731443771</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.331262324844158</v>
@@ -26428,7 +26380,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.540322663154796</v>
+        <v>1.529906065915087</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.422116206737503</v>
@@ -26517,7 +26469,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.514508409349454</v>
+        <v>1.512941435269612</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.42925911365592</v>
@@ -26803,7 +26755,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.369671622064576</v>
+        <v>1.329522443775578</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.319375713040423</v>
@@ -26892,7 +26844,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.386984309176062</v>
+        <v>1.341977134383693</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.091850079963979</v>
@@ -26981,7 +26933,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.419092984966111</v>
+        <v>1.369196342952649</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.400854740659937</v>
@@ -27070,7 +27022,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.423128439771121</v>
+        <v>1.378474365297117</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.231310453993897</v>
@@ -27159,7 +27111,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.41533310222879</v>
+        <v>1.364486962106706</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.254780131214047</v>
@@ -27248,7 +27200,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.416049070564506</v>
+        <v>1.366550271021675</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.497788806814421</v>
@@ -27337,7 +27289,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.427588836830647</v>
+        <v>1.375823240886076</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.254370027562574</v>
@@ -27426,7 +27378,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.429512793703244</v>
+        <v>1.373007332931098</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.281895081901621</v>
@@ -27515,7 +27467,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.452760243084233</v>
+        <v>1.39726194436084</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.329200636658353</v>
@@ -27604,7 +27556,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.470862683030431</v>
+        <v>1.413238154527666</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.329419926216646</v>
@@ -27693,7 +27645,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.469315963941198</v>
+        <v>1.411590675720052</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.299862665613799</v>
@@ -27782,7 +27734,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.458611119468741</v>
+        <v>1.402070977494927</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.375771971999211</v>
@@ -27871,7 +27823,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.460965706164579</v>
+        <v>1.406689412598799</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.289527816647975</v>
@@ -27960,7 +27912,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.466065451803846</v>
+        <v>1.40708719628576</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.272703170314773</v>
@@ -28049,7 +28001,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.465965209120369</v>
+        <v>1.394971619156134</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.296524921482633</v>
@@ -28138,7 +28090,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.467419575803587</v>
+        <v>1.390875553445526</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.293558698888162</v>
@@ -28227,7 +28179,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.479454314456452</v>
+        <v>1.404103974938595</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.299593609674509</v>
@@ -28316,7 +28268,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.480295624243244</v>
+        <v>1.4032573653183</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.284740993210711</v>
@@ -28405,7 +28357,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.486680670534855</v>
+        <v>1.407284747507979</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.187052749579365</v>
@@ -28494,7 +28446,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.487436439665508</v>
+        <v>1.42003777910233</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.360483523940796</v>
@@ -28583,7 +28535,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.532441576144569</v>
+        <v>1.457475839938089</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.260677283494661</v>
@@ -28672,7 +28624,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.538140852978314</v>
+        <v>1.457879019772705</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.408923560438053</v>
@@ -28761,7 +28713,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.572771011817157</v>
+        <v>1.485708657234838</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.440782505958809</v>
@@ -28850,7 +28802,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.567275727951036</v>
+        <v>1.477447955191685</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.436885383807305</v>
@@ -28939,7 +28891,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.574259754205511</v>
+        <v>1.472234446585406</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.423545148788493</v>
@@ -29028,7 +28980,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.579716590550951</v>
+        <v>1.473406849232557</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.317354748173673</v>
@@ -29117,7 +29069,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.59232320629355</v>
+        <v>1.481689053029059</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.851061959109402</v>
@@ -29206,7 +29158,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.557380259568749</v>
+        <v>1.455688082651925</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.638991932349463</v>
@@ -29295,7 +29247,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.561704896182709</v>
+        <v>1.463572718329283</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.674956274170272</v>
@@ -29384,7 +29336,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.564206688942509</v>
+        <v>1.475539277561583</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.615211272154629</v>
@@ -29473,7 +29425,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.560241662156457</v>
+        <v>1.478621965182135</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.575467520107733</v>
@@ -29562,7 +29514,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.552841446454663</v>
+        <v>1.469614796896932</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.674091104930777</v>
@@ -29651,7 +29603,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.543555525211468</v>
+        <v>1.464308960987065</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.647558225880501</v>
@@ -29740,7 +29692,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.541719671608362</v>
+        <v>1.460830375798257</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.610338705256931</v>
@@ -29829,7 +29781,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.56253423405124</v>
+        <v>1.474530267536783</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.557928325062877</v>
@@ -29918,7 +29870,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.566165749928651</v>
+        <v>1.475276872592227</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.510562858948801</v>
@@ -30007,7 +29959,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.571126807630608</v>
+        <v>1.476340241167289</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.461575133938979</v>
@@ -30096,7 +30048,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.540827270602904</v>
+        <v>1.458898875054495</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.38948212586856</v>
@@ -30185,7 +30137,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.538127679885105</v>
+        <v>1.458870598699433</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.173366624835845</v>
@@ -30274,7 +30226,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.537298579439817</v>
+        <v>1.47292574466085</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.132018855442002</v>
@@ -30363,7 +30315,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.535946265967185</v>
+        <v>1.477270589390896</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.183695361535459</v>
@@ -30452,7 +30404,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.54439864475705</v>
+        <v>1.480634227847151</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.09176878238439</v>
@@ -30541,7 +30493,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.578456588671671</v>
+        <v>1.511976937651388</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.243397734347184</v>
@@ -30630,7 +30582,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.542718760302781</v>
+        <v>1.484176295622895</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.222081237168688</v>
@@ -30719,7 +30671,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.554269668775142</v>
+        <v>1.497421009694893</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.219511502972858</v>
@@ -30808,7 +30760,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.565912948970855</v>
+        <v>1.513954387564964</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.18501860239952</v>
@@ -30897,7 +30849,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.569268401968585</v>
+        <v>1.515080130126302</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.203611780460191</v>
@@ -30986,7 +30938,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.552161322149229</v>
+        <v>1.501692669826726</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.225363520934571</v>
@@ -31075,7 +31027,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.526360963089096</v>
+        <v>1.485184255301084</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.242279727435692</v>
@@ -31164,7 +31116,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.508593072934755</v>
+        <v>1.483987965478024</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.288705858174334</v>
@@ -31253,7 +31205,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.478920743152579</v>
+        <v>1.463457407678499</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.358211381799173</v>
